--- a/Lab1/excel.xlsx
+++ b/Lab1/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDriveMirror\Studia\Studia_sem_6\IO\CollectionOfImageEngineeringProjects\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D61840-29AD-4E4A-B129-5B4F0F8F4B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539710EE-A2C8-4CC8-A6BC-0111A47DF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{5D380A81-2FB6-4165-881B-168130E0075E}"/>
   </bookViews>
@@ -176,15 +176,28 @@
             <c:v>Y=0</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="100000">
+                <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:alpha val="0"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
@@ -270,15 +283,28 @@
             <c:v>Y=1</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="100000">
+                <a:gs pos="0">
                   <a:schemeClr val="accent2">
-                    <a:alpha val="0"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
@@ -364,15 +390,28 @@
             <c:v>Y=2</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="100000">
+                <a:gs pos="0">
                   <a:schemeClr val="accent3">
-                    <a:alpha val="0"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
@@ -458,15 +497,28 @@
             <c:v>Y=3</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="100000">
+                <a:gs pos="0">
                   <a:schemeClr val="accent4">
-                    <a:alpha val="0"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
@@ -552,15 +604,28 @@
             <c:v>Y=4</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="100000">
+                <a:gs pos="0">
                   <a:schemeClr val="accent5">
-                    <a:alpha val="0"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
@@ -648,7 +713,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:gapDepth val="0"/>
         <c:shape val="box"/>
         <c:axId val="1339869200"/>
         <c:axId val="1339867280"/>
@@ -667,8 +731,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -679,10 +749,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -710,9 +777,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -738,10 +805,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -769,14 +833,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="none" w="sm" len="sm"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -787,10 +849,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -828,7 +887,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -869,37 +928,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -948,6 +977,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Y=0</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -961,19 +993,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Y</c:v>
+                  <c:v>X=0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X=0</c:v>
+                  <c:v>X=1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X=1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>X=2</c:v>
                 </c:pt>
               </c:strCache>
@@ -981,20 +1017,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$D$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$D$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1002,13 +1042,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49FB-455C-BB6C-F1168083F7A8}"/>
+              <c16:uniqueId val="{00000000-DEBC-4DF8-B3CE-247E35254857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Y=1</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1022,19 +1065,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Y</c:v>
+                  <c:v>X=0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X=0</c:v>
+                  <c:v>X=1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X=1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>X=2</c:v>
                 </c:pt>
               </c:strCache>
@@ -1042,20 +1089,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$D$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$3:$D$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1063,13 +1114,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49FB-455C-BB6C-F1168083F7A8}"/>
+              <c16:uniqueId val="{00000001-DEBC-4DF8-B3CE-247E35254857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Y=2</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -1083,19 +1137,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Y</c:v>
+                  <c:v>X=0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X=0</c:v>
+                  <c:v>X=1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X=1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>X=2</c:v>
                 </c:pt>
               </c:strCache>
@@ -1103,20 +1161,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$D$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$4:$D$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1124,7 +1186,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-49FB-455C-BB6C-F1168083F7A8}"/>
+              <c16:uniqueId val="{00000002-DEBC-4DF8-B3CE-247E35254857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1138,12 +1200,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1387433791"/>
-        <c:axId val="1387438591"/>
-        <c:axId val="1387354959"/>
+        <c:axId val="592389615"/>
+        <c:axId val="592381935"/>
+        <c:axId val="571518816"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1387433791"/>
+        <c:axId val="592389615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1242,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387438591"/>
+        <c:crossAx val="592381935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1387438591"/>
+        <c:axId val="592381935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,12 +1301,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387433791"/>
+        <c:crossAx val="592389615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1387354959"/>
+        <c:axId val="571518816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1342,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387438591"/>
+        <c:crossAx val="592381935"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1416,30 +1478,34 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="293">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1447,7 +1513,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1455,7 +1521,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1470,10 +1536,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1482,15 +1545,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1499,79 +1569,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:sp3d/>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1580,48 +1606,18 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1632,10 +1628,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1651,15 +1647,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1678,8 +1671,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -1697,146 +1690,143 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1844,22 +1834,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1869,17 +1854,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1888,12 +1873,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1902,13 +1884,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1917,10 +1900,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1929,7 +1909,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1938,8 +1918,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1950,10 +1930,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1962,7 +1939,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2503,22 +2480,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>245300</xdr:colOff>
+      <xdr:colOff>239346</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37577</xdr:rowOff>
+      <xdr:rowOff>49824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>187890</xdr:colOff>
+      <xdr:colOff>156307</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52190</xdr:rowOff>
+      <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DE8921-9CC7-EF25-88B0-FED2FA037F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2721CE85-31BC-EC8D-384A-9B6B1C8C2882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3A525-9F2C-4317-A12C-B0C06E1A32C2}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="91" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lab1/excel.xlsx
+++ b/Lab1/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDriveMirror\Studia\Studia_sem_6\IO\CollectionOfImageEngineeringProjects\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539710EE-A2C8-4CC8-A6BC-0111A47DF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34F72B-B474-4910-8BBB-44AEE4213D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{5D380A81-2FB6-4165-881B-168130E0075E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5D380A81-2FB6-4165-881B-168130E0075E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>X=0</t>
   </si>
@@ -981,6 +981,811 @@
             <c:v>Y=0</c:v>
           </c:tx>
           <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$56:$F$56</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$57:$F$57</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E2B-4BE6-A365-B971BF1ACC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$56:$F$56</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$58:$F$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E2B-4BE6-A365-B971BF1ACC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Y=2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$56:$F$56</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$59:$F$59</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E2B-4BE6-A365-B971BF1ACC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Y=3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$56:$F$56</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$60:$F$60</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$60:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E2B-4BE6-A365-B971BF1ACC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Y=4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$56:$F$56</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>X=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$61:$F$61</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$61:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3E2B-4BE6-A365-B971BF1ACC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="956730703"/>
+        <c:axId val="956730223"/>
+        <c:axId val="1221960575"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="956730703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956730223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956730223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956730703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1221960575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956730223"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y=0</c:v>
+          </c:tx>
+          <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1042,7 +1847,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEBC-4DF8-B3CE-247E35254857}"/>
+              <c16:uniqueId val="{00000000-27A8-4222-9B0A-0D9BA99CC2E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,7 +1919,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEBC-4DF8-B3CE-247E35254857}"/>
+              <c16:uniqueId val="{00000001-27A8-4222-9B0A-0D9BA99CC2E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1186,7 +1991,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DEBC-4DF8-B3CE-247E35254857}"/>
+              <c16:uniqueId val="{00000002-27A8-4222-9B0A-0D9BA99CC2E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,12 +2005,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="592389615"/>
-        <c:axId val="592381935"/>
-        <c:axId val="571518816"/>
+        <c:axId val="1350611855"/>
+        <c:axId val="1350610415"/>
+        <c:axId val="1221957775"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="592389615"/>
+        <c:axId val="1350611855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +2047,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592381935"/>
+        <c:crossAx val="1350610415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +2055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592381935"/>
+        <c:axId val="1350610415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,12 +2106,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592389615"/>
+        <c:crossAx val="1350611855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="571518816"/>
+        <c:axId val="1221957775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +2147,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592381935"/>
+        <c:crossAx val="1350610415"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1477,6 +2282,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
   <cs:axisTitle>
@@ -1946,6 +2791,474 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2480,22 +3793,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>239346</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49824</xdr:rowOff>
+      <xdr:colOff>211259</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>156307</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87924</xdr:rowOff>
+      <xdr:colOff>207596</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2721CE85-31BC-EC8D-384A-9B6B1C8C2882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFF547B-C46F-2C39-B05B-5BFD2E231DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,6 +3821,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA6BD49-BB84-2534-3A0E-481C5E0A2B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2833,15 +4182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3A525-9F2C-4317-A12C-B0C06E1A32C2}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2869,7 +4218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2883,7 +4232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2897,7 +4246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2917,7 +4266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2937,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2957,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2977,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2997,7 +4346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3015,6 +4364,126 @@
       </c>
       <c r="F31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
